--- a/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总 20180408.xlsx
+++ b/相关资料/02 灯具配置参数汇总表/Airsafe LED灯具配置参数汇总 20180408.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="178">
   <si>
     <t>IA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2049,6 +2049,43 @@
   </si>
   <si>
     <t>立式跑道灯具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">航空器停机位操作引导灯（8英寸 6mm）                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>LED Aircraft stand manoeuvring guidance lights (8-inch 6mm)</t>
+    </r>
+  </si>
+  <si>
+    <t>ASMG-08-LED-Y-M</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>均可</t>
+  </si>
+  <si>
+    <t>8寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2056,7 +2093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2153,6 +2190,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2168,7 +2212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2354,6 +2398,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2361,7 +2459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2461,32 +2559,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2500,13 +2577,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2518,19 +2595,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2543,9 +2669,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2838,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U85"/>
+  <dimension ref="A1:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U86" sqref="U86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2860,32 +2983,32 @@
     <col min="18" max="18" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.75" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.75" style="41" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -2946,7 +3069,7 @@
       <c r="T2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="42" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2992,7 +3115,7 @@
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
-      <c r="U3" s="47" t="s">
+      <c r="U3" s="40" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3000,10 +3123,10 @@
       <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="46" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -3038,7 +3161,7 @@
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
-      <c r="U4" s="57" t="s">
+      <c r="U4" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3046,8 +3169,8 @@
       <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -3080,16 +3203,16 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="57"/>
+      <c r="U5" s="43"/>
     </row>
     <row r="6" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="46" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -3124,7 +3247,7 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="57" t="s">
+      <c r="U6" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3132,8 +3255,8 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="3" t="s">
         <v>80</v>
       </c>
@@ -3166,16 +3289,16 @@
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="57"/>
+      <c r="U7" s="43"/>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="46" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -3210,7 +3333,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="57" t="s">
+      <c r="U8" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3218,8 +3341,8 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
@@ -3252,16 +3375,16 @@
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="57"/>
+      <c r="U9" s="43"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -3296,7 +3419,7 @@
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="57" t="s">
+      <c r="U10" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3304,8 +3427,8 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
@@ -3338,14 +3461,14 @@
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="57"/>
+      <c r="U11" s="43"/>
     </row>
     <row r="12" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="3" t="s">
         <v>73</v>
       </c>
@@ -3378,16 +3501,16 @@
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="57"/>
+      <c r="U12" s="43"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="46" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3422,7 +3545,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="57" t="s">
+      <c r="U13" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3430,8 +3553,8 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="53"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
@@ -3464,14 +3587,14 @@
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="57"/>
+      <c r="U14" s="43"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3504,14 +3627,14 @@
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="57"/>
+      <c r="U15" s="43"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="3" t="s">
         <v>53</v>
       </c>
@@ -3544,14 +3667,14 @@
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="57"/>
+      <c r="U16" s="43"/>
     </row>
     <row r="17" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3584,14 +3707,14 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="43"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
@@ -3624,14 +3747,14 @@
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="57"/>
+      <c r="U18" s="43"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
@@ -3664,14 +3787,14 @@
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
-      <c r="U19" s="57"/>
+      <c r="U19" s="43"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="46"/>
       <c r="E20" s="3" t="s">
         <v>57</v>
       </c>
@@ -3704,14 +3827,14 @@
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
-      <c r="U20" s="57"/>
+      <c r="U20" s="43"/>
     </row>
     <row r="21" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46"/>
       <c r="E21" s="3" t="s">
         <v>58</v>
       </c>
@@ -3744,14 +3867,14 @@
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
-      <c r="U21" s="57"/>
+      <c r="U21" s="43"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>20</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="3" t="s">
         <v>100</v>
       </c>
@@ -3784,14 +3907,14 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="57"/>
+      <c r="U22" s="43"/>
     </row>
     <row r="23" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <v>46</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="46"/>
       <c r="E23" s="3" t="s">
         <v>99</v>
       </c>
@@ -3824,7 +3947,7 @@
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
-      <c r="U23" s="57"/>
+      <c r="U23" s="43"/>
     </row>
     <row r="24" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
@@ -3868,7 +3991,7 @@
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
-      <c r="U24" s="47" t="s">
+      <c r="U24" s="40" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3876,10 +3999,10 @@
       <c r="B25" s="9">
         <v>22</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="46" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3914,7 +4037,7 @@
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
-      <c r="U25" s="57" t="s">
+      <c r="U25" s="43" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3922,8 +4045,8 @@
       <c r="B26" s="9">
         <v>23</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="3" t="s">
         <v>60</v>
       </c>
@@ -3956,14 +4079,14 @@
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
-      <c r="U26" s="57"/>
+      <c r="U26" s="43"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>24</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="3" t="s">
         <v>62</v>
       </c>
@@ -3996,14 +4119,14 @@
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
-      <c r="U27" s="57"/>
+      <c r="U27" s="43"/>
     </row>
     <row r="28" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <v>42</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="3" t="s">
         <v>95</v>
       </c>
@@ -4036,14 +4159,14 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="57"/>
+      <c r="U28" s="43"/>
     </row>
     <row r="29" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <v>43</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="3" t="s">
         <v>96</v>
       </c>
@@ -4076,16 +4199,16 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="57"/>
+      <c r="U29" s="43"/>
     </row>
     <row r="30" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>25</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="D30" s="46" t="s">
         <v>91</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -4120,7 +4243,7 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="57" t="s">
+      <c r="U30" s="43" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4128,8 +4251,8 @@
       <c r="B31" s="9">
         <v>26</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4162,14 +4285,14 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="57"/>
+      <c r="U31" s="43"/>
     </row>
     <row r="32" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>27</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4202,14 +4325,14 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="57"/>
+      <c r="U32" s="43"/>
     </row>
     <row r="33" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>28</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="53"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="2" t="s">
         <v>22</v>
       </c>
@@ -4242,14 +4365,14 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="57"/>
+      <c r="U33" s="43"/>
     </row>
     <row r="34" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <v>44</v>
       </c>
       <c r="C34" s="18"/>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -4284,7 +4407,7 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
-      <c r="U34" s="57" t="s">
+      <c r="U34" s="43" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4293,7 +4416,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="18"/>
-      <c r="D35" s="53"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="2" t="s">
         <v>94</v>
       </c>
@@ -4326,16 +4449,16 @@
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
-      <c r="U35" s="57"/>
+      <c r="U35" s="43"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9">
         <v>29</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="46" t="s">
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -4370,7 +4493,7 @@
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
-      <c r="U36" s="57" t="s">
+      <c r="U36" s="43" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4378,8 +4501,8 @@
       <c r="B37" s="9">
         <v>30</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="53"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="3" t="s">
         <v>64</v>
       </c>
@@ -4412,7 +4535,7 @@
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
-      <c r="U37" s="57"/>
+      <c r="U37" s="43"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9">
@@ -4456,7 +4579,7 @@
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
-      <c r="U38" s="47" t="s">
+      <c r="U38" s="40" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4502,7 +4625,7 @@
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
-      <c r="U39" s="47" t="s">
+      <c r="U39" s="40" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4510,7 +4633,7 @@
       <c r="B40" s="9">
         <v>33</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="51" t="s">
@@ -4548,7 +4671,7 @@
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
-      <c r="U40" s="57" t="s">
+      <c r="U40" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4556,7 +4679,7 @@
       <c r="B41" s="9">
         <v>34</v>
       </c>
-      <c r="C41" s="58"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="52"/>
       <c r="E41" s="2" t="s">
         <v>26</v>
@@ -4590,13 +4713,13 @@
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
-      <c r="U41" s="57"/>
+      <c r="U41" s="43"/>
     </row>
     <row r="42" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>35</v>
       </c>
-      <c r="C42" s="58"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="52"/>
       <c r="E42" s="2" t="s">
         <v>27</v>
@@ -4630,13 +4753,13 @@
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
-      <c r="U42" s="57"/>
+      <c r="U42" s="43"/>
     </row>
     <row r="43" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>36</v>
       </c>
-      <c r="C43" s="58"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="52"/>
       <c r="E43" s="2" t="s">
         <v>28</v>
@@ -4670,13 +4793,13 @@
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
-      <c r="U43" s="57"/>
+      <c r="U43" s="43"/>
     </row>
     <row r="44" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>37</v>
       </c>
-      <c r="C44" s="58"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="52"/>
       <c r="E44" s="2" t="s">
         <v>29</v>
@@ -4710,13 +4833,13 @@
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
-      <c r="U44" s="57"/>
+      <c r="U44" s="43"/>
     </row>
     <row r="45" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9">
         <v>38</v>
       </c>
-      <c r="C45" s="58"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="52"/>
       <c r="E45" s="2" t="s">
         <v>30</v>
@@ -4750,13 +4873,13 @@
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
-      <c r="U45" s="57"/>
+      <c r="U45" s="43"/>
     </row>
     <row r="46" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="52"/>
       <c r="E46" s="2" t="s">
         <v>31</v>
@@ -4790,13 +4913,13 @@
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
-      <c r="U46" s="57"/>
+      <c r="U46" s="43"/>
     </row>
     <row r="47" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="9">
         <v>40</v>
       </c>
-      <c r="C47" s="58"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="52"/>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -4830,7 +4953,7 @@
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
-      <c r="U47" s="57"/>
+      <c r="U47" s="43"/>
     </row>
     <row r="48" spans="2:21" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
@@ -4870,7 +4993,7 @@
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
-      <c r="U48" s="57"/>
+      <c r="U48" s="43"/>
     </row>
     <row r="49" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9">
@@ -4918,7 +5041,7 @@
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
-      <c r="U49" s="46" t="s">
+      <c r="U49" s="39" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4927,7 +5050,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="6"/>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="48" t="s">
         <v>127</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -4962,7 +5085,7 @@
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
-      <c r="U50" s="56" t="s">
+      <c r="U50" s="44" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4971,7 +5094,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="6"/>
-      <c r="D51" s="55"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
@@ -5004,14 +5127,14 @@
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
-      <c r="U51" s="57"/>
+      <c r="U51" s="43"/>
     </row>
     <row r="52" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9">
         <v>50</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="55"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="2" t="s">
         <v>104</v>
       </c>
@@ -5044,14 +5167,14 @@
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
-      <c r="U52" s="57"/>
+      <c r="U52" s="43"/>
     </row>
     <row r="53" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="9">
         <v>51</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="55"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="2" t="s">
         <v>106</v>
       </c>
@@ -5084,14 +5207,14 @@
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
-      <c r="U53" s="57"/>
+      <c r="U53" s="43"/>
     </row>
     <row r="54" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9">
         <v>52</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="55"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="2" t="s">
         <v>107</v>
       </c>
@@ -5124,14 +5247,14 @@
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
-      <c r="U54" s="57"/>
+      <c r="U54" s="43"/>
     </row>
     <row r="55" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="9">
         <v>53</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="55"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="2" t="s">
         <v>114</v>
       </c>
@@ -5164,14 +5287,14 @@
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
-      <c r="U55" s="57"/>
+      <c r="U55" s="43"/>
     </row>
     <row r="56" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9">
         <v>54</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="55"/>
+      <c r="D56" s="48"/>
       <c r="E56" s="2" t="s">
         <v>115</v>
       </c>
@@ -5204,14 +5327,14 @@
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
-      <c r="U56" s="57"/>
+      <c r="U56" s="43"/>
     </row>
     <row r="57" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9">
         <v>55</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="55"/>
+      <c r="D57" s="48"/>
       <c r="E57" s="2" t="s">
         <v>116</v>
       </c>
@@ -5244,14 +5367,14 @@
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
-      <c r="U57" s="57"/>
+      <c r="U57" s="43"/>
     </row>
     <row r="58" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9">
         <v>56</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="55"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="2" t="s">
         <v>118</v>
       </c>
@@ -5284,14 +5407,14 @@
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
-      <c r="U58" s="57"/>
+      <c r="U58" s="43"/>
     </row>
     <row r="59" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="9">
         <v>67</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="55"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="2" t="s">
         <v>119</v>
       </c>
@@ -5324,14 +5447,14 @@
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
-      <c r="U59" s="57"/>
+      <c r="U59" s="43"/>
     </row>
     <row r="60" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <v>58</v>
       </c>
       <c r="C60" s="20"/>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="48" t="s">
         <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -5366,7 +5489,7 @@
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
-      <c r="U60" s="56" t="s">
+      <c r="U60" s="44" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5375,7 +5498,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="20"/>
-      <c r="D61" s="55"/>
+      <c r="D61" s="48"/>
       <c r="E61" s="2" t="s">
         <v>120</v>
       </c>
@@ -5408,14 +5531,14 @@
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
-      <c r="U61" s="57"/>
+      <c r="U61" s="43"/>
     </row>
     <row r="62" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <v>60</v>
       </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="55"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="2" t="s">
         <v>105</v>
       </c>
@@ -5448,14 +5571,14 @@
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
-      <c r="U62" s="57"/>
+      <c r="U62" s="43"/>
     </row>
     <row r="63" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9">
         <v>61</v>
       </c>
       <c r="C63" s="6"/>
-      <c r="D63" s="55"/>
+      <c r="D63" s="48"/>
       <c r="E63" s="2" t="s">
         <v>121</v>
       </c>
@@ -5488,14 +5611,14 @@
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
-      <c r="U63" s="57"/>
+      <c r="U63" s="43"/>
     </row>
     <row r="64" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9">
         <v>62</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="55"/>
+      <c r="D64" s="48"/>
       <c r="E64" s="2" t="s">
         <v>122</v>
       </c>
@@ -5528,14 +5651,14 @@
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
-      <c r="U64" s="57"/>
+      <c r="U64" s="43"/>
     </row>
     <row r="65" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <v>63</v>
       </c>
       <c r="C65" s="20"/>
-      <c r="D65" s="55"/>
+      <c r="D65" s="48"/>
       <c r="E65" s="2" t="s">
         <v>123</v>
       </c>
@@ -5568,14 +5691,14 @@
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
-      <c r="U65" s="57"/>
+      <c r="U65" s="43"/>
     </row>
     <row r="66" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <v>64</v>
       </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="55"/>
+      <c r="D66" s="48"/>
       <c r="E66" s="2" t="s">
         <v>124</v>
       </c>
@@ -5608,14 +5731,14 @@
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
-      <c r="U66" s="57"/>
+      <c r="U66" s="43"/>
     </row>
     <row r="67" spans="2:21" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <v>65</v>
       </c>
       <c r="C67" s="20"/>
-      <c r="D67" s="55"/>
+      <c r="D67" s="48"/>
       <c r="E67" s="2" t="s">
         <v>117</v>
       </c>
@@ -5648,14 +5771,14 @@
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
-      <c r="U67" s="57"/>
+      <c r="U67" s="43"/>
     </row>
     <row r="68" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9">
         <v>66</v>
       </c>
       <c r="C68" s="6"/>
-      <c r="D68" s="55"/>
+      <c r="D68" s="48"/>
       <c r="E68" s="2" t="s">
         <v>125</v>
       </c>
@@ -5688,14 +5811,14 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
-      <c r="U68" s="57"/>
+      <c r="U68" s="43"/>
     </row>
     <row r="69" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="9">
         <v>67</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="55"/>
+      <c r="D69" s="48"/>
       <c r="E69" s="2" t="s">
         <v>126</v>
       </c>
@@ -5728,7 +5851,7 @@
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
-      <c r="U69" s="57"/>
+      <c r="U69" s="43"/>
     </row>
     <row r="70" spans="2:21" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="27">
@@ -5814,7 +5937,7 @@
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
-      <c r="U71" s="46" t="s">
+      <c r="U71" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5858,7 +5981,7 @@
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
-      <c r="U72" s="46" t="s">
+      <c r="U72" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5902,7 +6025,7 @@
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
-      <c r="U73" s="46" t="s">
+      <c r="U73" s="39" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5911,7 +6034,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="33"/>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="37" t="s">
         <v>139</v>
       </c>
       <c r="E74" s="20" t="s">
@@ -5937,22 +6060,22 @@
       <c r="M74" s="34"/>
       <c r="N74" s="34"/>
       <c r="O74" s="34"/>
-      <c r="P74" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="33">
-        <v>0</v>
-      </c>
-      <c r="R74" s="33">
-        <v>0</v>
-      </c>
-      <c r="S74" s="33">
+      <c r="P74" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="56">
+        <v>0</v>
+      </c>
+      <c r="R74" s="56">
+        <v>0</v>
+      </c>
+      <c r="S74" s="56">
         <v>0</v>
       </c>
       <c r="T74" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="U74" s="46" t="s">
+      <c r="U74" s="39" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5961,7 +6084,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="33"/>
-      <c r="D75" s="40" t="s">
+      <c r="D75" s="38" t="s">
         <v>156</v>
       </c>
       <c r="E75" s="20" t="s">
@@ -5987,22 +6110,22 @@
       <c r="M75" s="34"/>
       <c r="N75" s="34"/>
       <c r="O75" s="34"/>
-      <c r="P75" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="33">
-        <v>0</v>
-      </c>
-      <c r="R75" s="33">
-        <v>0</v>
-      </c>
-      <c r="S75" s="33">
+      <c r="P75" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="56">
+        <v>0</v>
+      </c>
+      <c r="R75" s="56">
+        <v>0</v>
+      </c>
+      <c r="S75" s="56">
         <v>0</v>
       </c>
       <c r="T75" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="U75" s="46" t="s">
+      <c r="U75" s="39" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6011,7 +6134,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="33"/>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="38" t="s">
         <v>157</v>
       </c>
       <c r="E76" s="20" t="s">
@@ -6037,22 +6160,22 @@
       <c r="M76" s="34"/>
       <c r="N76" s="34"/>
       <c r="O76" s="34"/>
-      <c r="P76" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="33">
-        <v>0</v>
-      </c>
-      <c r="R76" s="33">
-        <v>0</v>
-      </c>
-      <c r="S76" s="33">
+      <c r="P76" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="56">
+        <v>0</v>
+      </c>
+      <c r="R76" s="56">
+        <v>0</v>
+      </c>
+      <c r="S76" s="56">
         <v>0</v>
       </c>
       <c r="T76" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U76" s="46" t="s">
+      <c r="U76" s="39" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6087,22 +6210,22 @@
       <c r="M77" s="34"/>
       <c r="N77" s="34"/>
       <c r="O77" s="34"/>
-      <c r="P77" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="33">
-        <v>0</v>
-      </c>
-      <c r="R77" s="33">
-        <v>0</v>
-      </c>
-      <c r="S77" s="33">
+      <c r="P77" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="56">
+        <v>0</v>
+      </c>
+      <c r="R77" s="56">
+        <v>0</v>
+      </c>
+      <c r="S77" s="56">
         <v>0</v>
       </c>
       <c r="T77" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U77" s="56" t="s">
+      <c r="U77" s="44" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6135,22 +6258,22 @@
       <c r="M78" s="34"/>
       <c r="N78" s="34"/>
       <c r="O78" s="34"/>
-      <c r="P78" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="33">
-        <v>0</v>
-      </c>
-      <c r="R78" s="33">
-        <v>0</v>
-      </c>
-      <c r="S78" s="33">
+      <c r="P78" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="56">
+        <v>0</v>
+      </c>
+      <c r="R78" s="56">
+        <v>0</v>
+      </c>
+      <c r="S78" s="56">
         <v>0</v>
       </c>
       <c r="T78" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U78" s="56"/>
+      <c r="U78" s="44"/>
     </row>
     <row r="79" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9">
@@ -6181,22 +6304,22 @@
       <c r="M79" s="34"/>
       <c r="N79" s="34"/>
       <c r="O79" s="34"/>
-      <c r="P79" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="33">
-        <v>0</v>
-      </c>
-      <c r="R79" s="33">
-        <v>0</v>
-      </c>
-      <c r="S79" s="33">
+      <c r="P79" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="56">
+        <v>0</v>
+      </c>
+      <c r="R79" s="56">
+        <v>0</v>
+      </c>
+      <c r="S79" s="56">
         <v>0</v>
       </c>
       <c r="T79" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U79" s="56"/>
+      <c r="U79" s="44"/>
     </row>
     <row r="80" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9">
@@ -6227,24 +6350,24 @@
       <c r="M80" s="34"/>
       <c r="N80" s="34"/>
       <c r="O80" s="34"/>
-      <c r="P80" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="33">
-        <v>0</v>
-      </c>
-      <c r="R80" s="33">
-        <v>0</v>
-      </c>
-      <c r="S80" s="33">
+      <c r="P80" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="56">
+        <v>0</v>
+      </c>
+      <c r="R80" s="56">
+        <v>0</v>
+      </c>
+      <c r="S80" s="56">
         <v>0</v>
       </c>
       <c r="T80" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U80" s="56"/>
-    </row>
-    <row r="81" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U80" s="44"/>
+    </row>
+    <row r="81" spans="1:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9">
         <v>79</v>
       </c>
@@ -6273,29 +6396,29 @@
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
       <c r="O81" s="34"/>
-      <c r="P81" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="33">
-        <v>0</v>
-      </c>
-      <c r="R81" s="33">
-        <v>0</v>
-      </c>
-      <c r="S81" s="33">
+      <c r="P81" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="56">
+        <v>0</v>
+      </c>
+      <c r="R81" s="56">
+        <v>0</v>
+      </c>
+      <c r="S81" s="56">
         <v>0</v>
       </c>
       <c r="T81" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U81" s="56"/>
-    </row>
-    <row r="82" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U81" s="44"/>
+    </row>
+    <row r="82" spans="1:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9">
         <v>80</v>
       </c>
       <c r="C82" s="33"/>
-      <c r="D82" s="40" t="s">
+      <c r="D82" s="38" t="s">
         <v>160</v>
       </c>
       <c r="E82" s="20" t="s">
@@ -6321,31 +6444,31 @@
       <c r="M82" s="34"/>
       <c r="N82" s="34"/>
       <c r="O82" s="34"/>
-      <c r="P82" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="33">
-        <v>0</v>
-      </c>
-      <c r="R82" s="33">
-        <v>0</v>
-      </c>
-      <c r="S82" s="33">
+      <c r="P82" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="56">
+        <v>0</v>
+      </c>
+      <c r="R82" s="56">
+        <v>0</v>
+      </c>
+      <c r="S82" s="56">
         <v>0</v>
       </c>
       <c r="T82" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U82" s="46" t="s">
+      <c r="U82" s="39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9">
         <v>81</v>
       </c>
       <c r="C83" s="33"/>
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="38" t="s">
         <v>158</v>
       </c>
       <c r="E83" s="20" t="s">
@@ -6371,31 +6494,31 @@
       <c r="M83" s="34"/>
       <c r="N83" s="34"/>
       <c r="O83" s="34"/>
-      <c r="P83" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="33">
-        <v>0</v>
-      </c>
-      <c r="R83" s="33">
-        <v>0</v>
-      </c>
-      <c r="S83" s="33">
+      <c r="P83" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="56">
+        <v>0</v>
+      </c>
+      <c r="R83" s="56">
+        <v>0</v>
+      </c>
+      <c r="S83" s="56">
         <v>0</v>
       </c>
       <c r="T83" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U83" s="46" t="s">
+      <c r="U83" s="39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9">
         <v>82</v>
       </c>
       <c r="C84" s="33"/>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="38" t="s">
         <v>161</v>
       </c>
       <c r="E84" s="20" t="s">
@@ -6421,99 +6544,118 @@
       <c r="M84" s="34"/>
       <c r="N84" s="34"/>
       <c r="O84" s="34"/>
-      <c r="P84" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="33">
-        <v>0</v>
-      </c>
-      <c r="R84" s="33">
-        <v>0</v>
-      </c>
-      <c r="S84" s="33">
+      <c r="P84" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="56">
+        <v>0</v>
+      </c>
+      <c r="R84" s="56">
+        <v>0</v>
+      </c>
+      <c r="S84" s="56">
         <v>0</v>
       </c>
       <c r="T84" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="U84" s="46" t="s">
+      <c r="U84" s="39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="2:21" s="32" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="45">
+    <row r="85" spans="1:21" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="53">
         <v>83</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="41" t="s">
+      <c r="C85" s="54"/>
+      <c r="D85" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E85" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="F85" s="42">
-        <v>0</v>
-      </c>
-      <c r="G85" s="38"/>
-      <c r="H85" s="42">
-        <v>0</v>
-      </c>
-      <c r="I85" s="38"/>
-      <c r="J85" s="43" t="s">
+      <c r="F85" s="64">
+        <v>0</v>
+      </c>
+      <c r="G85" s="65"/>
+      <c r="H85" s="64">
+        <v>0</v>
+      </c>
+      <c r="I85" s="65"/>
+      <c r="J85" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="K85" s="43" t="s">
+      <c r="K85" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="L85" s="43" t="s">
+      <c r="L85" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="38"/>
-      <c r="P85" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="37">
-        <v>0</v>
-      </c>
-      <c r="R85" s="37">
-        <v>0</v>
-      </c>
-      <c r="S85" s="37">
-        <v>0</v>
-      </c>
-      <c r="T85" s="44" t="s">
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="70">
+        <v>0</v>
+      </c>
+      <c r="R85" s="70">
+        <v>0</v>
+      </c>
+      <c r="S85" s="70">
+        <v>0</v>
+      </c>
+      <c r="T85" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="U85" s="60" t="s">
+      <c r="U85" s="68" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="55"/>
+      <c r="B86" s="59">
+        <v>84</v>
+      </c>
+      <c r="C86" s="57"/>
+      <c r="D86" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="E86" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F86" s="60">
+        <v>0.76</v>
+      </c>
+      <c r="G86" s="58"/>
+      <c r="H86" s="60">
+        <v>0</v>
+      </c>
+      <c r="I86" s="58"/>
+      <c r="J86" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="K86" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L86" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="M86" s="58"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="58"/>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="58"/>
+      <c r="R86" s="58"/>
+      <c r="S86" s="58"/>
+      <c r="T86" s="58"/>
+      <c r="U86" s="62" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U40:U48"/>
-    <mergeCell ref="U50:U59"/>
-    <mergeCell ref="U60:U69"/>
-    <mergeCell ref="U77:U81"/>
-    <mergeCell ref="U13:U23"/>
-    <mergeCell ref="U25:U29"/>
-    <mergeCell ref="U30:U33"/>
-    <mergeCell ref="U34:U35"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="B1:T1"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D13:D23"/>
     <mergeCell ref="D50:D59"/>
     <mergeCell ref="C30:C33"/>
@@ -6528,6 +6670,28 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="D60:D69"/>
+    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="U40:U48"/>
+    <mergeCell ref="U50:U59"/>
+    <mergeCell ref="U60:U69"/>
+    <mergeCell ref="U77:U81"/>
+    <mergeCell ref="U13:U23"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="U30:U33"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
